--- a/static/schedule/Pасписание/28 февраля 2024 среда.xlsx
+++ b/static/schedule/Pасписание/28 февраля 2024 среда.xlsx
@@ -166,10 +166,6 @@
     <t>Производственная практика</t>
   </si>
   <si>
-    <t>Иностранный язык в профессиональной деятельности
-Коротина М.А.</t>
-  </si>
-  <si>
     <t>Эксплуатация объектов сетевой инфраструктуры
 Гурьянова Е.Е.</t>
   </si>
@@ -178,11 +174,6 @@
 Локтев А.М</t>
   </si>
   <si>
-    <t xml:space="preserve">Финансовый контроль деятельности экономического субъекта
-Неживая А.Э
-</t>
-  </si>
-  <si>
     <t>Разработка программных модулей
 Говезин Е.А.</t>
   </si>
@@ -191,226 +182,235 @@
 Васюкова К.В.</t>
   </si>
   <si>
-    <t>Технология разработики
+    <t>Численные методы
+Курбанов И.Б.</t>
+  </si>
+  <si>
+    <t>Разработка программных модулей
+Горелов А.С.</t>
+  </si>
+  <si>
+    <t>Разработка мобильных приложений
+Горелов А.С.</t>
+  </si>
+  <si>
+    <t>Инструментальные средства разработки программного обеспечения
+Галямов Я.М.</t>
+  </si>
+  <si>
+    <t>Основы проектирования баз данных
+Демичев Д.В.</t>
+  </si>
+  <si>
+    <t>Безопасность компьютерных сетей
+Букин Д.А.</t>
+  </si>
+  <si>
+    <t>Администрирование сетевых операционных систем
+Горбунова А.И</t>
+  </si>
+  <si>
+    <t>Безопасность компьютерных сетей
+Локтев А.М.</t>
+  </si>
+  <si>
+    <t>Система автоматизированного проектирования и моделирования компьютерных сетей
+Гурьянова Е.Е.</t>
+  </si>
+  <si>
+    <t>Налоговый контроль в организации
+Берендеева О.С.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 февраля 2024 (среда) 
+</t>
+  </si>
+  <si>
+    <t>Компьютерные сети
+Букин Д.А</t>
+  </si>
+  <si>
+    <t>Основы проектирования баз данных
+Яхругина Е.О</t>
+  </si>
+  <si>
+    <t>УП.04
+Горбунова А.И.</t>
+  </si>
+  <si>
+    <t>Разработка мобильных приложений
+Кукушкин В.И.</t>
+  </si>
+  <si>
+    <t>Разработка программных модулей
+Кукушкин В.И.</t>
+  </si>
+  <si>
+    <t>УП.02
+Демичев Д.В.</t>
+  </si>
+  <si>
+    <t>Технология физического уровня передачи данных
+Курбанов И.Б.</t>
+  </si>
+  <si>
+    <t>Элементы высшей математики
+Соколова А.С.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы философии
+Панов О.А. </t>
+  </si>
+  <si>
+    <t>Администрирование сетевых операционных систем
+Гурьянова Е.Е</t>
+  </si>
+  <si>
+    <t>Стандартизация, серификация и техническое документоведение
+Буркова Т.А.</t>
+  </si>
+  <si>
+    <t>Эксплуатация объектов сетевой инфраструктуры
+Букин Д.А.</t>
+  </si>
+  <si>
+    <t>Иностранный язык
+Коротина М.А.</t>
+  </si>
+  <si>
+    <t>Основы социологии и политологии 
+Панов О.А</t>
+  </si>
+  <si>
+    <t>Математика
+Соколова А.С.</t>
+  </si>
+  <si>
+    <t>Товароведение продовольственных и непродовольственных товаров
+Шульпикова Д.А.</t>
+  </si>
+  <si>
+    <t>Стандартизация, метрология и подтверждение соответствия
+Берендеева О.С.</t>
+  </si>
+  <si>
+    <t>Организация торговли
+Берендеева О.С.</t>
+  </si>
+  <si>
+    <t>Налоги и налогооблажение
+Берендеева О.С</t>
+  </si>
+  <si>
+    <t>Экономика организации
+Гадомская Т.М.</t>
+  </si>
+  <si>
+    <t>Практические основы бухгалтерского учета активов организации 
+Соловьева Т.Е.</t>
+  </si>
+  <si>
+    <t>Аудит
+Гадомская Т.М.</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>м</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>33а</t>
+  </si>
+  <si>
+    <t>32а</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Стандартизация, сертификация и техническое документоведение
+Буркова Т.А.</t>
+  </si>
+  <si>
+    <t>Администрирование сетевых операционных систем
+Сысуйкин Д.Д.</t>
+  </si>
+  <si>
+    <t>Технология разработки
 и защиты баз данных
 Яхругина Е.О</t>
   </si>
   <si>
-    <t>Численные методы
-Курбанов И.Б.</t>
-  </si>
-  <si>
-    <t>Разработка программных модулей
-Горелов А.С.</t>
-  </si>
-  <si>
-    <t>Разработка мобильных приложений
-Горелов А.С.</t>
-  </si>
-  <si>
-    <t>Инструментальные средства разработки программного обеспечения
-Галямов Я.М.</t>
-  </si>
-  <si>
-    <t>Основы проектирования баз данных
-Демичев Д.В.</t>
-  </si>
-  <si>
-    <t>Безопасность компьютерных сетей
-Букин Д.А.</t>
-  </si>
-  <si>
-    <t>Администрирование сетевых операционных систем
-Горбунова А.И</t>
-  </si>
-  <si>
-    <t>Безопасность компьютерных сетей
-Локтев А.М.</t>
-  </si>
-  <si>
-    <t>Система автоматизированного проектирования и моделирования компьютерных сетей
-Гурьянова Е.Е.</t>
-  </si>
-  <si>
-    <t>Налоговый контроль в организации
-Берендеева О.С.</t>
-  </si>
-  <si>
-    <t>Менеджмент (по отраслям)
-Шульпикова Д.А.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28 февраля 2024 (среда) 
-</t>
-  </si>
-  <si>
-    <t>Информационные технологии
-Буркова Т.А.</t>
-  </si>
-  <si>
-    <t>Компьютерные сети
-Букин Д.А</t>
-  </si>
-  <si>
-    <t>Основы проектирования баз данных
-Яхругина Е.О</t>
-  </si>
-  <si>
-    <t>УП.04
-Горбунова А.И.</t>
-  </si>
-  <si>
-    <t>Разработка мобильных приложений
-Кукушкин В.И.</t>
-  </si>
-  <si>
-    <t>Разработка программных модулей
-Кукушкин В.И.</t>
-  </si>
-  <si>
-    <t>УП.02
-Демичев Д.В.</t>
-  </si>
-  <si>
-    <t>Администрирование стевых операционных систем
-Сысуйкин Д.Д.</t>
-  </si>
-  <si>
-    <t>Технология физического уровня передачи данных
-Курбанов И.Б.</t>
-  </si>
-  <si>
-    <t>Элементы высшей математики
-Соколова А.С.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы философии
-Панов О.А. </t>
-  </si>
-  <si>
-    <t>Администрирование сетевых операционных систем
-Гурьянова Е.Е</t>
-  </si>
-  <si>
-    <t>Стандартизация, серификация и техническое документоведение
-Буркова Т.А.</t>
-  </si>
-  <si>
-    <t>Эксплуатация объектов сетевой инфраструктуры
-Букин Д.А.</t>
-  </si>
-  <si>
-    <t>Иностранный язык
-Коротина М.А.</t>
-  </si>
-  <si>
-    <t>Основы социологии и политологии 
-Панов О.А</t>
-  </si>
-  <si>
-    <t>Математика
-Соколова А.С.</t>
-  </si>
-  <si>
-    <t>Товароведение продовольственных и непродовольственных товаров
-Шульпикова Д.А.</t>
-  </si>
-  <si>
-    <t>Стандартизация, метрология и подтверждение соответствия
-Берендеева О.С.</t>
-  </si>
-  <si>
-    <t>Организация торговли
-Берендеева О.С.</t>
-  </si>
-  <si>
-    <t>Налоги и налогооблажение
-Берендеева О.С</t>
-  </si>
-  <si>
-    <t>Экономика организации
-Гадомская Т.М.</t>
-  </si>
-  <si>
-    <t>Практические основы бухгалтерского учета активов организации 
-Соловьева Т.Е.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Информационные технологии
+    <t xml:space="preserve">Информационные технологии в профессиональной деятельности
 Соколова А.С.
 </t>
   </si>
   <si>
-    <t>Аудит
-Гадомская Т.М.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Основы анализа
+    <t>Менеджмент 
+(по отраслям)
+Шульпикова Д.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основы анализа бухгалтерской отчетности
 Гадомская Т.М.
 </t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>м</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>33а</t>
-  </si>
-  <si>
-    <t>32а</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>25</t>
+    <t>Финансовый контроль деятельности экономического субъекта
+Неживая А.Э</t>
+  </si>
+  <si>
+    <t>Иностранный язык 
+Коротина М.А.</t>
   </si>
 </sst>
 </file>
@@ -1298,13 +1298,13 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="22" fillId="26" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="26" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1668,8 +1668,8 @@
   </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1706,24 +1706,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="67" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
+      <c r="B1" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
       <c r="H1" s="3"/>
       <c r="I1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="2"/>
-      <c r="K1" s="68" t="s">
+      <c r="K1" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
       <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1764,7 +1764,7 @@
       </c>
       <c r="R2" s="8"/>
     </row>
-    <row r="3" spans="1:20" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1774,10 +1774,10 @@
       <c r="C3" s="48"/>
       <c r="D3" s="34"/>
       <c r="E3" s="48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="G3" s="45"/>
       <c r="H3" s="33" t="s">
@@ -1786,25 +1786,25 @@
       <c r="I3" s="45"/>
       <c r="J3" s="39"/>
       <c r="K3" s="50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M3" s="45"/>
       <c r="N3" s="33" t="s">
         <v>37</v>
       </c>
       <c r="O3" s="50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="Q3" s="21"/>
       <c r="R3" s="27"/>
     </row>
-    <row r="4" spans="1:20" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="62.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1814,33 +1814,33 @@
       <c r="C4" s="50"/>
       <c r="D4" s="33"/>
       <c r="E4" s="50" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="33"/>
       <c r="I4" s="45"/>
       <c r="J4" s="33"/>
       <c r="K4" s="48" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M4" s="50"/>
       <c r="N4" s="33"/>
       <c r="O4" s="48" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="21"/>
       <c r="R4" s="27"/>
     </row>
-    <row r="5" spans="1:20" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1850,41 +1850,41 @@
       <c r="C5" s="21"/>
       <c r="D5" s="33"/>
       <c r="E5" s="50" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I5" s="65"/>
       <c r="J5" s="33"/>
       <c r="K5" s="45" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="M5" s="48" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="O5" s="50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="Q5" s="64"/>
       <c r="R5" s="27"/>
     </row>
-    <row r="6" spans="1:20" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1892,44 +1892,44 @@
         <v>42</v>
       </c>
       <c r="C6" s="63" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="69" t="s">
-        <v>112</v>
+        <v>106</v>
+      </c>
+      <c r="H6" s="67" t="s">
+        <v>104</v>
       </c>
       <c r="I6" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="K6" s="50"/>
       <c r="L6" s="33"/>
       <c r="M6" s="45" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="O6" s="48"/>
       <c r="P6" s="33"/>
       <c r="Q6" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="R6" s="27" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1940,42 +1940,42 @@
         <v>43</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="33" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="20"/>
       <c r="M7" s="48" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="33"/>
       <c r="Q7" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1986,10 +1986,10 @@
         <v>44</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>37</v>
@@ -2003,7 +2003,7 @@
         <v>38</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="K8" s="63"/>
       <c r="L8" s="33"/>
@@ -2016,10 +2016,10 @@
       <c r="O8" s="47"/>
       <c r="P8" s="34"/>
       <c r="Q8" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2066,10 +2066,10 @@
         <v>31</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E10" s="45"/>
       <c r="F10" s="33"/>
@@ -2078,24 +2078,24 @@
       <c r="I10" s="45"/>
       <c r="J10" s="33"/>
       <c r="K10" s="50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M10" s="49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N10" s="49" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="O10" s="48"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="66" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="S10" s="62" t="s">
         <v>37</v>
@@ -2104,7 +2104,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="96.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -2112,48 +2112,48 @@
         <v>32</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="F11" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="K11" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="L11" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="G11" s="50" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="I11" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="J11" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="K11" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="33" t="s">
-        <v>106</v>
-      </c>
       <c r="M11" s="45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N11" s="49" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="O11" s="48"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="45" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="S11" s="62" t="s">
         <v>37</v>
@@ -2170,48 +2170,48 @@
         <v>41</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H12" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="K12" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="L12" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="M12" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="N12" s="33" t="s">
         <v>100</v>
-      </c>
-      <c r="I12" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="J12" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="K12" s="64" t="s">
-        <v>61</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="M12" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="33" t="s">
-        <v>108</v>
       </c>
       <c r="O12" s="66"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="66" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="S12" s="62" t="s">
         <v>37</v>
@@ -2220,7 +2220,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -2228,38 +2228,38 @@
         <v>42</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E13" s="50" t="s">
+        <v>109</v>
+      </c>
+      <c r="F13" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G13" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="G13" s="50" t="s">
-        <v>69</v>
-      </c>
       <c r="H13" s="27" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K13" s="50"/>
       <c r="L13" s="27"/>
       <c r="M13" s="48"/>
       <c r="N13" s="33"/>
       <c r="O13" s="66" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="45"/>
       <c r="R13" s="33"/>
@@ -2270,7 +2270,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="110.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -2288,10 +2288,10 @@
         <v>37</v>
       </c>
       <c r="I14" s="50" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K14" s="45" t="s">
         <v>37</v>
@@ -2302,10 +2302,10 @@
       <c r="M14" s="48"/>
       <c r="N14" s="33"/>
       <c r="O14" s="45" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q14" s="48"/>
       <c r="R14" s="33"/>
@@ -2331,10 +2331,10 @@
         <v>37</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="K15" s="45" t="s">
         <v>37</v>
@@ -2345,10 +2345,10 @@
       <c r="M15" s="48"/>
       <c r="N15" s="33"/>
       <c r="O15" s="66" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q15" s="48"/>
       <c r="R15" s="33"/>
@@ -2389,7 +2389,7 @@
       </c>
       <c r="R16" s="8"/>
     </row>
-    <row r="17" spans="1:19" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
@@ -2397,10 +2397,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="33"/>
@@ -2415,19 +2415,19 @@
       </c>
       <c r="N17" s="33"/>
       <c r="O17" s="64" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="45" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="R17" s="44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="72.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -2435,10 +2435,10 @@
         <v>32</v>
       </c>
       <c r="C18" s="64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="33"/>
@@ -2455,19 +2455,19 @@
         <v>37</v>
       </c>
       <c r="O18" s="63" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="P18" s="27" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="Q18" s="45" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="R18" s="20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
@@ -2475,16 +2475,16 @@
         <v>41</v>
       </c>
       <c r="C19" s="64" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="G19" s="47"/>
       <c r="H19" s="33"/>
@@ -2501,13 +2501,13 @@
       <c r="O19" s="48"/>
       <c r="P19" s="33"/>
       <c r="Q19" s="45" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="93" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
@@ -2515,34 +2515,34 @@
         <v>42</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>47</v>
+        <v>112</v>
       </c>
       <c r="J20" s="33" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="K20" s="21" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="L20" s="33" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="M20" s="48" t="s">
         <v>37</v>
@@ -2555,7 +2555,7 @@
       <c r="Q20" s="48"/>
       <c r="R20" s="33"/>
     </row>
-    <row r="21" spans="1:19" ht="100.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
@@ -2565,28 +2565,28 @@
       <c r="C21" s="47"/>
       <c r="D21" s="33"/>
       <c r="E21" s="51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F21" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="L21" s="33" t="s">
         <v>103</v>
-      </c>
-      <c r="G21" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="I21" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="K21" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>111</v>
       </c>
       <c r="M21" s="48" t="s">
         <v>37</v>
@@ -2599,7 +2599,7 @@
       <c r="Q21" s="48"/>
       <c r="R21" s="33"/>
     </row>
-    <row r="22" spans="1:19" ht="99.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>7</v>
       </c>
@@ -2612,25 +2612,25 @@
         <v>36</v>
       </c>
       <c r="F22" s="63" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="J22" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="L22" s="33" t="s">
         <v>103</v>
-      </c>
-      <c r="K22" s="21" t="s">
-        <v>50</v>
-      </c>
-      <c r="L22" s="33" t="s">
-        <v>111</v>
       </c>
       <c r="M22" s="39" t="s">
         <v>37</v>
@@ -2673,7 +2673,7 @@
       <c r="Q23" s="12"/>
       <c r="R23" s="16"/>
     </row>
-    <row r="24" spans="1:19" ht="99" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>1</v>
       </c>
@@ -2698,7 +2698,7 @@
       <c r="R24" s="34"/>
       <c r="S24" s="41"/>
     </row>
-    <row r="25" spans="1:19" ht="87.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="76.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>45</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G25" s="51"/>
       <c r="H25" s="33"/>
@@ -2726,7 +2726,7 @@
       <c r="Q25" s="52"/>
       <c r="R25" s="28"/>
     </row>
-    <row r="26" spans="1:19" ht="107.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>2</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>39</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G26" s="51"/>
       <c r="H26" s="33"/>
@@ -2754,7 +2754,7 @@
       <c r="Q26" s="53"/>
       <c r="R26" s="54"/>
     </row>
-    <row r="27" spans="1:19" ht="123.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
@@ -2769,13 +2769,13 @@
         <v>39</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G27" s="51" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="38"/>
@@ -2788,7 +2788,7 @@
       <c r="Q27" s="55"/>
       <c r="R27" s="56"/>
     </row>
-    <row r="28" spans="1:19" ht="120" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>6</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E28" s="46" t="s">
         <v>37</v>
@@ -2808,10 +2808,10 @@
         <v>37</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="20"/>
@@ -2824,7 +2824,7 @@
       <c r="Q28" s="57"/>
       <c r="R28" s="58"/>
     </row>
-    <row r="29" spans="1:19" ht="94.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="32" t="s">
         <v>7</v>
       </c>
@@ -2835,7 +2835,7 @@
         <v>39</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E29" s="42" t="s">
         <v>37</v>
@@ -2847,7 +2847,7 @@
         <v>36</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="20"/>

--- a/static/schedule/Pасписание/28 февраля 2024 среда.xlsx
+++ b/static/schedule/Pасписание/28 февраля 2024 среда.xlsx
@@ -222,10 +222,6 @@
 Берендеева О.С.</t>
   </si>
   <si>
-    <t xml:space="preserve">28 февраля 2024 (среда) 
-</t>
-  </si>
-  <si>
     <t>Компьютерные сети
 Букин Д.А</t>
   </si>
@@ -390,27 +386,28 @@
 Яхругина Е.О</t>
   </si>
   <si>
-    <t xml:space="preserve">Информационные технологии в профессиональной деятельности
-Соколова А.С.
-</t>
-  </si>
-  <si>
     <t>Менеджмент 
 (по отраслям)
 Шульпикова Д.А.</t>
   </si>
   <si>
-    <t xml:space="preserve">Основы анализа бухгалтерской отчетности
-Гадомская Т.М.
-</t>
-  </si>
-  <si>
     <t>Финансовый контроль деятельности экономического субъекта
 Неживая А.Э</t>
   </si>
   <si>
     <t>Иностранный язык 
 Коротина М.А.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28 февраля 2024 (среда) </t>
+  </si>
+  <si>
+    <t>Информационные технологии в профессиональной деятельности
+Соколова А.С.</t>
+  </si>
+  <si>
+    <t>Основы анализа бухгалтерской отчетности
+Гадомская Т.М.</t>
   </si>
 </sst>
 </file>
@@ -1668,8 +1665,8 @@
   </sheetPr>
   <dimension ref="A1:T54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1707,7 +1704,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="68" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="C1" s="68"/>
       <c r="D1" s="68"/>
@@ -1777,7 +1774,7 @@
         <v>51</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G3" s="45"/>
       <c r="H3" s="33" t="s">
@@ -1789,7 +1786,7 @@
         <v>49</v>
       </c>
       <c r="L3" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M3" s="45"/>
       <c r="N3" s="33" t="s">
@@ -1799,7 +1796,7 @@
         <v>50</v>
       </c>
       <c r="P3" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Q3" s="21"/>
       <c r="R3" s="27"/>
@@ -1817,7 +1814,7 @@
         <v>50</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="21"/>
       <c r="H4" s="33"/>
@@ -1827,20 +1824,20 @@
         <v>51</v>
       </c>
       <c r="L4" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M4" s="50"/>
       <c r="N4" s="33"/>
       <c r="O4" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P4" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="21"/>
       <c r="R4" s="27"/>
     </row>
-    <row r="5" spans="1:20" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" ht="81.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
@@ -1850,41 +1847,41 @@
       <c r="C5" s="21"/>
       <c r="D5" s="33"/>
       <c r="E5" s="50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G5" s="63" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I5" s="65"/>
       <c r="J5" s="33"/>
       <c r="K5" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L5" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M5" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N5" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O5" s="50" t="s">
         <v>52</v>
       </c>
       <c r="P5" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="64"/>
       <c r="R5" s="27"/>
     </row>
-    <row r="6" spans="1:20" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1895,33 +1892,33 @@
         <v>55</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E6" s="50" t="s">
         <v>52</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H6" s="67" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I6" s="45" t="s">
         <v>48</v>
       </c>
       <c r="J6" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K6" s="50"/>
       <c r="L6" s="33"/>
       <c r="M6" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N6" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O6" s="48"/>
       <c r="P6" s="33"/>
@@ -1929,10 +1926,10 @@
         <v>56</v>
       </c>
       <c r="R6" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1943,31 +1940,31 @@
         <v>48</v>
       </c>
       <c r="D7" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="50"/>
       <c r="F7" s="33" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J7" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K7" s="48"/>
       <c r="L7" s="20"/>
       <c r="M7" s="48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N7" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O7" s="39"/>
       <c r="P7" s="33"/>
@@ -1975,10 +1972,10 @@
         <v>57</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>7</v>
       </c>
@@ -1986,10 +1983,10 @@
         <v>44</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="50" t="s">
         <v>37</v>
@@ -2003,7 +2000,7 @@
         <v>38</v>
       </c>
       <c r="J8" s="34" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K8" s="63"/>
       <c r="L8" s="33"/>
@@ -2019,7 +2016,7 @@
         <v>57</v>
       </c>
       <c r="R8" s="34" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2058,7 +2055,7 @@
       </c>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:20" ht="90.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" ht="98.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
         <v>1</v>
       </c>
@@ -2066,10 +2063,10 @@
         <v>31</v>
       </c>
       <c r="C10" s="45" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E10" s="45"/>
       <c r="F10" s="33"/>
@@ -2081,21 +2078,21 @@
         <v>59</v>
       </c>
       <c r="L10" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M10" s="49" t="s">
         <v>53</v>
       </c>
       <c r="N10" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O10" s="48"/>
       <c r="P10" s="33"/>
       <c r="Q10" s="66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R10" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S10" s="62" t="s">
         <v>37</v>
@@ -2104,7 +2101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
@@ -2112,48 +2109,48 @@
         <v>32</v>
       </c>
       <c r="C11" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E11" s="48" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G11" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="21" t="s">
         <v>58</v>
       </c>
       <c r="J11" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K11" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L11" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M11" s="45" t="s">
         <v>52</v>
       </c>
       <c r="N11" s="49" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O11" s="48"/>
       <c r="P11" s="33"/>
       <c r="Q11" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R11" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S11" s="62" t="s">
         <v>37</v>
@@ -2162,7 +2159,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="69.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>2</v>
       </c>
@@ -2170,48 +2167,48 @@
         <v>41</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E12" s="50" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G12" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H12" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I12" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K12" s="64" t="s">
         <v>58</v>
       </c>
       <c r="L12" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="M12" s="48" t="s">
         <v>54</v>
       </c>
       <c r="N12" s="33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="O12" s="66"/>
       <c r="P12" s="33"/>
       <c r="Q12" s="66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="R12" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S12" s="62" t="s">
         <v>37</v>
@@ -2220,7 +2217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="71.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" ht="66" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>5</v>
       </c>
@@ -2228,38 +2225,38 @@
         <v>42</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" s="50" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G13" s="50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J13" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K13" s="50"/>
       <c r="L13" s="27"/>
       <c r="M13" s="48"/>
       <c r="N13" s="33"/>
       <c r="O13" s="66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P13" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="45"/>
       <c r="R13" s="33"/>
@@ -2270,7 +2267,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" ht="97.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
@@ -2291,7 +2288,7 @@
         <v>59</v>
       </c>
       <c r="J14" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K14" s="45" t="s">
         <v>37</v>
@@ -2302,10 +2299,10 @@
       <c r="M14" s="48"/>
       <c r="N14" s="33"/>
       <c r="O14" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P14" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="48"/>
       <c r="R14" s="33"/>
@@ -2331,10 +2328,10 @@
         <v>37</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J15" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K15" s="45" t="s">
         <v>37</v>
@@ -2345,10 +2342,10 @@
       <c r="M15" s="48"/>
       <c r="N15" s="33"/>
       <c r="O15" s="66" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P15" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q15" s="48"/>
       <c r="R15" s="33"/>
@@ -2389,7 +2386,7 @@
       </c>
       <c r="R16" s="8"/>
     </row>
-    <row r="17" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>1</v>
       </c>
@@ -2397,10 +2394,10 @@
         <v>31</v>
       </c>
       <c r="C17" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="51"/>
       <c r="F17" s="33"/>
@@ -2415,19 +2412,19 @@
       </c>
       <c r="N17" s="33"/>
       <c r="O17" s="64" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P17" s="33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R17" s="44" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" ht="74.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="82.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>3</v>
       </c>
@@ -2438,7 +2435,7 @@
         <v>47</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" s="48"/>
       <c r="F18" s="33"/>
@@ -2455,19 +2452,19 @@
         <v>37</v>
       </c>
       <c r="O18" s="63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P18" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q18" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R18" s="20" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="69" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>2</v>
       </c>
@@ -2478,13 +2475,13 @@
         <v>47</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E19" s="48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G19" s="47"/>
       <c r="H19" s="33"/>
@@ -2501,13 +2498,13 @@
       <c r="O19" s="48"/>
       <c r="P19" s="33"/>
       <c r="Q19" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R19" s="33" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="81" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>5</v>
       </c>
@@ -2515,34 +2512,34 @@
         <v>42</v>
       </c>
       <c r="C20" s="51" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F20" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G20" s="37" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I20" s="48" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J20" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="L20" s="33" t="s">
         <v>102</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>103</v>
       </c>
       <c r="M20" s="48" t="s">
         <v>37</v>
@@ -2568,25 +2565,25 @@
         <v>60</v>
       </c>
       <c r="F21" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" s="47" t="s">
-        <v>96</v>
-      </c>
       <c r="I21" s="47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L21" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M21" s="48" t="s">
         <v>37</v>
@@ -2599,7 +2596,7 @@
       <c r="Q21" s="48"/>
       <c r="R21" s="33"/>
     </row>
-    <row r="22" spans="1:19" ht="75.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>7</v>
       </c>
@@ -2612,25 +2609,25 @@
         <v>36</v>
       </c>
       <c r="F22" s="63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G22" s="46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I22" s="47" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J22" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L22" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M22" s="39" t="s">
         <v>37</v>
@@ -2673,7 +2670,7 @@
       <c r="Q23" s="12"/>
       <c r="R23" s="16"/>
     </row>
-    <row r="24" spans="1:19" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>1</v>
       </c>
@@ -2711,7 +2708,7 @@
         <v>45</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" s="51"/>
       <c r="H25" s="33"/>
@@ -2739,7 +2736,7 @@
         <v>39</v>
       </c>
       <c r="F26" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G26" s="51"/>
       <c r="H26" s="33"/>
@@ -2769,13 +2766,13 @@
         <v>39</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" s="51" t="s">
         <v>60</v>
       </c>
       <c r="H27" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I27" s="48"/>
       <c r="J27" s="38"/>
@@ -2788,7 +2785,7 @@
       <c r="Q27" s="55"/>
       <c r="R27" s="56"/>
     </row>
-    <row r="28" spans="1:19" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="78.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>6</v>
       </c>
@@ -2799,7 +2796,7 @@
         <v>45</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E28" s="46" t="s">
         <v>37</v>
@@ -2808,10 +2805,10 @@
         <v>37</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I28" s="42"/>
       <c r="J28" s="20"/>
@@ -2835,7 +2832,7 @@
         <v>39</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E29" s="42" t="s">
         <v>37</v>
@@ -2847,7 +2844,7 @@
         <v>36</v>
       </c>
       <c r="H29" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="20"/>
